--- a/datf_core/test/testcases/testcase31_delta_parquet_manual.xlsx
+++ b/datf_core/test/testcases/testcase31_delta_parquet_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3C1441-486E-4C7C-879E-B31C3AE468CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD00A4EF-6DD1-4DD1-9F2E-3877E8723D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/datf_core/test/testcases/testcase31_delta_parquet_manual.xlsx
+++ b/datf_core/test/testcases/testcase31_delta_parquet_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD00A4EF-6DD1-4DD1-9F2E-3877E8723D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC33312-04F4-4710-997E-F35C1DF13B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>sourcequerymode</t>
   </si>
@@ -171,9 +171,6 @@
     <t>delta</t>
   </si>
   <si>
-    <t>Auto</t>
-  </si>
-  <si>
     <t>dbfs:/user/hive/warehouse/healthcare.db/delta_patients</t>
   </si>
   <si>
@@ -181,6 +178,12 @@
   </si>
   <si>
     <t>testcase31_delta_parquet_manual</t>
+  </si>
+  <si>
+    <t>test/sql/sourcesql</t>
+  </si>
+  <si>
+    <t>patient_source_delta_manual.sql</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +576,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -589,7 +592,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -629,7 +632,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -666,20 +669,26 @@
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -782,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -855,7 +864,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6 B19" xr:uid="{9FF30855-8436-42A8-9825-752EC287DC20}">
       <formula1>"aws-s3,redshift,oracle"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B14 B3" xr:uid="{01C4EF0D-7247-4C84-B339-7110C6C1DDBE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B27 B3 B14" xr:uid="{01C4EF0D-7247-4C84-B339-7110C6C1DDBE}">
       <formula1>"Auto,Manual"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10 B23" xr:uid="{287F7A43-6C4E-4AC8-8370-E84529DD0FCD}">

--- a/datf_core/test/testcases/testcase31_delta_parquet_manual.xlsx
+++ b/datf_core/test/testcases/testcase31_delta_parquet_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC33312-04F4-4710-997E-F35C1DF13B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754E364-FD3B-4772-AC54-0F70B8B8B48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>sourcequerymode</t>
   </si>
@@ -560,7 +560,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,9 @@
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">

--- a/datf_core/test/testcases/testcase31_delta_parquet_manual.xlsx
+++ b/datf_core/test/testcases/testcase31_delta_parquet_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6754E364-FD3B-4772-AC54-0F70B8B8B48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DE3CAB-62C6-47DD-A2B2-B76A2EB481F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>sourcequerymode</t>
   </si>
@@ -560,7 +560,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,9 +639,7 @@
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -859,7 +857,7 @@
       <c r="B42" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{5C998984-B12B-4920-B7BE-2FCA4650DBA8}">
       <formula1>"avro,json,parquet,delimitedfile,delta,table"</formula1>
     </dataValidation>
